--- a/SimpleBox4Nano/src/main/webapp/resources/templates/scenarios.xlsx
+++ b/SimpleBox4Nano/src/main/webapp/resources/templates/scenarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikol\git\nanosolveit\NanoSolveIT\src\main\webapp\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikol\git\SimpleBox4Nano\SimpleBox4Nano\src\main\webapp\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE52C0B-40D2-45C8-A1A3-5883C32C871B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB903C8D-A86B-47C7-9295-EF9705B1BC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1295,118 +1295,113 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1422,7 +1417,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="24">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1431,6 +1426,30 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC00CC"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC00CC"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC00CC"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1460,21 +1479,6 @@
         <color rgb="FFCC00CC"/>
       </font>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC00CC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC00CC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC00CC"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1512,27 +1516,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1547,7 +1530,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="version"/>
@@ -2182,7 +2165,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="version"/>
@@ -26373,8 +26356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K144" sqref="K144"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26387,7 +26370,7 @@
     <col min="8" max="8" width="10.6640625" style="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="10.5546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="13.6640625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.77734375" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.77734375" style="8" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="14.6640625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.6640625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
@@ -26456,7 +26439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>205</v>
       </c>
@@ -26485,40 +26468,40 @@
       <c r="T4" s="23"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="28"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="K7" s="47"/>
+      <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -26534,7 +26517,7 @@
       <c r="J8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="47">
+      <c r="K8" s="8">
         <v>10000</v>
       </c>
       <c r="L8" s="2">
@@ -26565,12 +26548,12 @@
         <v>1.0407920872040186</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -26586,7 +26569,7 @@
       <c r="J9" s="2">
         <v>0</v>
       </c>
-      <c r="K9" s="47">
+      <c r="K9" s="8">
         <v>0</v>
       </c>
       <c r="L9" s="2">
@@ -26617,12 +26600,12 @@
         <v>2.6776198441110208E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -26638,7 +26621,7 @@
       <c r="J10" s="2">
         <v>0</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="8">
         <v>10000</v>
       </c>
       <c r="L10" s="2">
@@ -26669,12 +26652,12 @@
         <v>3.4927070810371705</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -26690,7 +26673,7 @@
       <c r="J11" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="8">
         <v>0</v>
       </c>
       <c r="L11" s="2">
@@ -26721,12 +26704,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -26742,7 +26725,7 @@
       <c r="J12" s="2">
         <v>0</v>
       </c>
-      <c r="K12" s="47">
+      <c r="K12" s="8">
         <v>0</v>
       </c>
       <c r="L12" s="2">
@@ -26773,12 +26756,12 @@
         <v>0.48491560650155491</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -26794,7 +26777,7 @@
       <c r="J13" s="2">
         <v>0</v>
       </c>
-      <c r="K13" s="47">
+      <c r="K13" s="8">
         <v>10000</v>
       </c>
       <c r="L13" s="2">
@@ -26825,12 +26808,12 @@
         <v>6.3545689186753025</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -26846,7 +26829,7 @@
       <c r="J14" s="2">
         <v>0</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="8">
         <v>0</v>
       </c>
       <c r="L14" s="2">
@@ -26877,12 +26860,12 @@
         <v>0.17959837277835367</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="28"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -26894,7 +26877,7 @@
       <c r="J15" s="2">
         <v>0</v>
       </c>
-      <c r="K15" s="47">
+      <c r="K15" s="8">
         <v>0</v>
       </c>
       <c r="L15" s="2">
@@ -26925,12 +26908,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -26946,7 +26929,7 @@
       <c r="J16" s="2">
         <v>0</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K16" s="8">
         <v>0</v>
       </c>
       <c r="L16" s="2">
@@ -26977,12 +26960,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -26998,7 +26981,7 @@
       <c r="J17" s="2">
         <v>0</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="8">
         <v>0</v>
       </c>
       <c r="L17" s="2">
@@ -27029,12 +27012,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -27050,7 +27033,7 @@
       <c r="J18" s="2">
         <v>0</v>
       </c>
-      <c r="K18" s="47">
+      <c r="K18" s="8">
         <v>0</v>
       </c>
       <c r="L18" s="2">
@@ -27081,12 +27064,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -27102,7 +27085,7 @@
       <c r="J19" s="2">
         <v>0</v>
       </c>
-      <c r="K19" s="47">
+      <c r="K19" s="8">
         <v>0</v>
       </c>
       <c r="L19" s="2">
@@ -27133,12 +27116,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -27154,7 +27137,7 @@
       <c r="J20" s="2">
         <v>0</v>
       </c>
-      <c r="K20" s="47">
+      <c r="K20" s="8">
         <v>0</v>
       </c>
       <c r="L20" s="2">
@@ -27185,12 +27168,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="28"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -27206,7 +27189,7 @@
       <c r="J21" s="2">
         <v>0</v>
       </c>
-      <c r="K21" s="47">
+      <c r="K21" s="8">
         <v>0</v>
       </c>
       <c r="L21" s="2">
@@ -27237,12 +27220,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -27258,7 +27241,7 @@
       <c r="J22" s="2">
         <v>0</v>
       </c>
-      <c r="K22" s="47">
+      <c r="K22" s="8">
         <v>0</v>
       </c>
       <c r="L22" s="2">
@@ -27289,12 +27272,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="28"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -27306,7 +27289,7 @@
       <c r="J23" s="2">
         <v>0</v>
       </c>
-      <c r="K23" s="47">
+      <c r="K23" s="8">
         <v>0</v>
       </c>
       <c r="L23" s="2">
@@ -27337,12 +27320,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="28"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -27358,7 +27341,7 @@
       <c r="J24" s="2">
         <v>0</v>
       </c>
-      <c r="K24" s="47">
+      <c r="K24" s="8">
         <v>0</v>
       </c>
       <c r="L24" s="2">
@@ -27389,12 +27372,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="28"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -27410,7 +27393,7 @@
       <c r="J25" s="2">
         <v>0</v>
       </c>
-      <c r="K25" s="47">
+      <c r="K25" s="8">
         <v>0</v>
       </c>
       <c r="L25" s="2">
@@ -27441,12 +27424,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -27462,7 +27445,7 @@
       <c r="J26" s="2">
         <v>0</v>
       </c>
-      <c r="K26" s="47">
+      <c r="K26" s="8">
         <v>0</v>
       </c>
       <c r="L26" s="2">
@@ -27493,12 +27476,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+    <row r="27" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="28"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -27510,7 +27493,7 @@
       <c r="J27" s="2">
         <v>0</v>
       </c>
-      <c r="K27" s="47">
+      <c r="K27" s="8">
         <v>0</v>
       </c>
       <c r="L27" s="2">
@@ -27541,12 +27524,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="28"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -27562,7 +27545,7 @@
       <c r="J28" s="2">
         <v>0</v>
       </c>
-      <c r="K28" s="47">
+      <c r="K28" s="8">
         <v>0</v>
       </c>
       <c r="L28" s="2">
@@ -27593,12 +27576,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="28"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -27614,7 +27597,7 @@
       <c r="J29" s="2">
         <v>0</v>
       </c>
-      <c r="K29" s="47">
+      <c r="K29" s="8">
         <v>0</v>
       </c>
       <c r="L29" s="2">
@@ -27645,12 +27628,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="28"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -27666,7 +27649,7 @@
       <c r="J30" s="2">
         <v>0</v>
       </c>
-      <c r="K30" s="47">
+      <c r="K30" s="8">
         <v>0</v>
       </c>
       <c r="L30" s="2">
@@ -27697,12 +27680,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
+    <row r="31" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="28"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -27714,7 +27697,7 @@
       <c r="J31" s="2">
         <v>0</v>
       </c>
-      <c r="K31" s="47">
+      <c r="K31" s="8">
         <v>0</v>
       </c>
       <c r="L31" s="2">
@@ -27745,12 +27728,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="28"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -27766,7 +27749,7 @@
       <c r="J32" s="5">
         <v>0</v>
       </c>
-      <c r="K32" s="48">
+      <c r="K32" s="45">
         <v>0</v>
       </c>
       <c r="L32" s="5">
@@ -27797,12 +27780,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="28"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -27818,7 +27801,7 @@
       <c r="J33" s="2">
         <v>0</v>
       </c>
-      <c r="K33" s="47">
+      <c r="K33" s="8">
         <v>0</v>
       </c>
       <c r="L33" s="2">
@@ -27849,12 +27832,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="28"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -27870,7 +27853,7 @@
       <c r="J34" s="2">
         <v>0</v>
       </c>
-      <c r="K34" s="47">
+      <c r="K34" s="8">
         <v>0</v>
       </c>
       <c r="L34" s="2">
@@ -27916,16 +27899,16 @@
       <c r="T35" s="2"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="L36" s="2"/>
@@ -27939,7 +27922,7 @@
       <c r="T36" s="2"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="29" t="s">
         <v>14</v>
       </c>
       <c r="I37" s="2"/>
@@ -27966,12 +27949,12 @@
         <v>54</v>
       </c>
       <c r="I38" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
       </c>
-      <c r="K38" s="47">
+      <c r="K38" s="8">
         <v>0</v>
       </c>
       <c r="L38" s="2">
@@ -28019,7 +28002,7 @@
       <c r="J39" s="2">
         <v>0</v>
       </c>
-      <c r="K39" s="47">
+      <c r="K39" s="8">
         <v>0</v>
       </c>
       <c r="L39" s="2">
@@ -28062,12 +28045,12 @@
         <v>54</v>
       </c>
       <c r="I40" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
       </c>
-      <c r="K40" s="47">
+      <c r="K40" s="8">
         <v>0</v>
       </c>
       <c r="L40" s="2">
@@ -28115,7 +28098,7 @@
       <c r="J41" s="2">
         <v>0</v>
       </c>
-      <c r="K41" s="47">
+      <c r="K41" s="8">
         <v>0</v>
       </c>
       <c r="L41" s="2">
@@ -28163,7 +28146,7 @@
       <c r="J42" s="2">
         <v>0</v>
       </c>
-      <c r="K42" s="47">
+      <c r="K42" s="8">
         <v>0</v>
       </c>
       <c r="L42" s="2">
@@ -28206,12 +28189,12 @@
         <v>54</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J43" s="2">
         <v>0</v>
       </c>
-      <c r="K43" s="47">
+      <c r="K43" s="8">
         <v>0</v>
       </c>
       <c r="L43" s="2">
@@ -28259,7 +28242,7 @@
       <c r="J44" s="2">
         <v>0</v>
       </c>
-      <c r="K44" s="47">
+      <c r="K44" s="8">
         <v>0</v>
       </c>
       <c r="L44" s="2">
@@ -28291,7 +28274,7 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="29" t="s">
         <v>30</v>
       </c>
       <c r="G45" s="3"/>
@@ -28324,7 +28307,7 @@
       <c r="J46" s="2">
         <v>0</v>
       </c>
-      <c r="K46" s="47">
+      <c r="K46" s="8">
         <v>0</v>
       </c>
       <c r="L46" s="2">
@@ -28372,7 +28355,7 @@
       <c r="J47" s="2">
         <v>0</v>
       </c>
-      <c r="K47" s="47">
+      <c r="K47" s="8">
         <v>0</v>
       </c>
       <c r="L47" s="2">
@@ -28420,7 +28403,7 @@
       <c r="J48" s="2">
         <v>0</v>
       </c>
-      <c r="K48" s="47">
+      <c r="K48" s="8">
         <v>0</v>
       </c>
       <c r="L48" s="2">
@@ -28468,7 +28451,7 @@
       <c r="J49" s="2">
         <v>0</v>
       </c>
-      <c r="K49" s="47">
+      <c r="K49" s="8">
         <v>0</v>
       </c>
       <c r="L49" s="2">
@@ -28516,7 +28499,7 @@
       <c r="J50" s="2">
         <v>0</v>
       </c>
-      <c r="K50" s="47">
+      <c r="K50" s="8">
         <v>0</v>
       </c>
       <c r="L50" s="2">
@@ -28564,7 +28547,7 @@
       <c r="J51" s="2">
         <v>0</v>
       </c>
-      <c r="K51" s="47">
+      <c r="K51" s="8">
         <v>0</v>
       </c>
       <c r="L51" s="2">
@@ -28612,7 +28595,7 @@
       <c r="J52" s="2">
         <v>0</v>
       </c>
-      <c r="K52" s="47">
+      <c r="K52" s="8">
         <v>0</v>
       </c>
       <c r="L52" s="2">
@@ -28644,7 +28627,7 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="29" t="s">
         <v>38</v>
       </c>
       <c r="G53" s="3"/>
@@ -28677,7 +28660,7 @@
       <c r="J54" s="2">
         <v>0</v>
       </c>
-      <c r="K54" s="47">
+      <c r="K54" s="8">
         <v>0</v>
       </c>
       <c r="L54" s="2">
@@ -28725,7 +28708,7 @@
       <c r="J55" s="2">
         <v>0</v>
       </c>
-      <c r="K55" s="47">
+      <c r="K55" s="8">
         <v>0</v>
       </c>
       <c r="L55" s="2">
@@ -28773,7 +28756,7 @@
       <c r="J56" s="2">
         <v>0</v>
       </c>
-      <c r="K56" s="47">
+      <c r="K56" s="8">
         <v>0</v>
       </c>
       <c r="L56" s="2">
@@ -28805,7 +28788,7 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B57" s="1"/>
@@ -28839,7 +28822,7 @@
       <c r="J58" s="2">
         <v>0</v>
       </c>
-      <c r="K58" s="47">
+      <c r="K58" s="8">
         <v>0</v>
       </c>
       <c r="L58" s="2">
@@ -28887,7 +28870,7 @@
       <c r="J59" s="2">
         <v>0</v>
       </c>
-      <c r="K59" s="47">
+      <c r="K59" s="8">
         <v>0</v>
       </c>
       <c r="L59" s="2">
@@ -28935,7 +28918,7 @@
       <c r="J60" s="2">
         <v>0</v>
       </c>
-      <c r="K60" s="47">
+      <c r="K60" s="8">
         <v>0</v>
       </c>
       <c r="L60" s="2">
@@ -28967,7 +28950,7 @@
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="29" t="s">
         <v>48</v>
       </c>
       <c r="G61" s="3"/>
@@ -28994,13 +28977,13 @@
       <c r="H62" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="5">
         <v>0</v>
       </c>
       <c r="J62" s="2">
         <v>0</v>
       </c>
-      <c r="K62" s="47">
+      <c r="K62" s="8">
         <v>0</v>
       </c>
       <c r="L62" s="2">
@@ -29048,7 +29031,7 @@
       <c r="J63" s="2">
         <v>0</v>
       </c>
-      <c r="K63" s="47">
+      <c r="K63" s="8">
         <v>0</v>
       </c>
       <c r="L63" s="2">
@@ -29096,7 +29079,7 @@
       <c r="J64" s="2">
         <v>0</v>
       </c>
-      <c r="K64" s="47">
+      <c r="K64" s="8">
         <v>0</v>
       </c>
       <c r="L64" s="2">
@@ -29158,7 +29141,7 @@
       <c r="T66" s="2"/>
     </row>
     <row r="67" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="24" t="s">
         <v>79</v>
       </c>
       <c r="H67" s="3"/>
@@ -29175,7 +29158,7 @@
       <c r="T67" s="2"/>
     </row>
     <row r="68" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="31" t="s">
         <v>14</v>
       </c>
       <c r="G68" s="7"/>
@@ -29199,7 +29182,7 @@
       <c r="G69" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H69" s="34" t="s">
+      <c r="H69" s="33" t="s">
         <v>82</v>
       </c>
       <c r="I69" s="2">
@@ -29208,13 +29191,13 @@
       <c r="J69" s="2">
         <v>40000</v>
       </c>
-      <c r="K69" s="47">
+      <c r="K69" s="8">
         <v>228570</v>
       </c>
       <c r="L69" s="2">
         <v>15875</v>
       </c>
-      <c r="M69" s="36">
+      <c r="M69" s="35">
         <v>15875</v>
       </c>
       <c r="N69" s="2">
@@ -29229,7 +29212,7 @@
       <c r="Q69" s="2">
         <v>228570</v>
       </c>
-      <c r="R69" s="35">
+      <c r="R69" s="34">
         <v>228570</v>
       </c>
       <c r="S69" s="2">
@@ -29246,7 +29229,7 @@
       <c r="G70" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H70" s="34" t="s">
+      <c r="H70" s="33" t="s">
         <v>82</v>
       </c>
       <c r="I70" s="2">
@@ -29255,7 +29238,7 @@
       <c r="J70" s="2">
         <v>400</v>
       </c>
-      <c r="K70" s="47">
+      <c r="K70" s="8">
         <v>1000</v>
       </c>
       <c r="L70" s="8">
@@ -29264,10 +29247,10 @@
       <c r="M70" s="2">
         <v>0</v>
       </c>
-      <c r="N70" s="35">
+      <c r="N70" s="34">
         <v>1000</v>
       </c>
-      <c r="O70" s="35">
+      <c r="O70" s="34">
         <v>1000</v>
       </c>
       <c r="P70" s="2">
@@ -29276,7 +29259,7 @@
       <c r="Q70" s="2">
         <v>1000</v>
       </c>
-      <c r="R70" s="35">
+      <c r="R70" s="34">
         <v>1000</v>
       </c>
       <c r="S70" s="2">
@@ -29302,13 +29285,13 @@
       <c r="J71" s="2">
         <v>1E-10</v>
       </c>
-      <c r="K71" s="47">
+      <c r="K71" s="8">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="L71" s="2">
         <v>9.9999999999999995E-21</v>
       </c>
-      <c r="M71" s="36">
+      <c r="M71" s="35">
         <v>9.9999999999999995E-21</v>
       </c>
       <c r="N71" s="2">
@@ -29323,7 +29306,7 @@
       <c r="Q71" s="2">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="R71" s="35">
+      <c r="R71" s="34">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="S71" s="2">
@@ -29349,13 +29332,13 @@
       <c r="J72" s="2">
         <v>0.03</v>
       </c>
-      <c r="K72" s="47">
+      <c r="K72" s="8">
         <v>2.75E-2</v>
       </c>
       <c r="L72" s="2">
         <v>2.5595388012618299E-4</v>
       </c>
-      <c r="M72" s="36">
+      <c r="M72" s="35">
         <v>2.5595388012618299E-4</v>
       </c>
       <c r="N72" s="2">
@@ -29370,7 +29353,7 @@
       <c r="Q72" s="2">
         <v>2.75E-2</v>
       </c>
-      <c r="R72" s="35">
+      <c r="R72" s="34">
         <v>2.75E-2</v>
       </c>
       <c r="S72" s="2">
@@ -29396,13 +29379,13 @@
       <c r="J73" s="2">
         <v>0.27</v>
       </c>
-      <c r="K73" s="47">
+      <c r="K73" s="8">
         <v>0.27</v>
       </c>
       <c r="L73" s="2">
         <v>0.13396571095647686</v>
       </c>
-      <c r="M73" s="36">
+      <c r="M73" s="35">
         <v>0.13396571095647686</v>
       </c>
       <c r="N73" s="2">
@@ -29417,7 +29400,7 @@
       <c r="Q73" s="2">
         <v>0.27</v>
       </c>
-      <c r="R73" s="35">
+      <c r="R73" s="34">
         <v>0.27</v>
       </c>
       <c r="S73" s="2">
@@ -29443,13 +29426,13 @@
       <c r="J74" s="2">
         <v>0.6</v>
       </c>
-      <c r="K74" s="47">
+      <c r="K74" s="8">
         <v>0.6</v>
       </c>
       <c r="L74" s="2">
         <v>0.62583981387130228</v>
       </c>
-      <c r="M74" s="36">
+      <c r="M74" s="35">
         <v>0.62583981387130228</v>
       </c>
       <c r="N74" s="2">
@@ -29464,7 +29447,7 @@
       <c r="Q74" s="2">
         <v>0.6</v>
       </c>
-      <c r="R74" s="35">
+      <c r="R74" s="34">
         <v>0.6</v>
       </c>
       <c r="S74" s="2">
@@ -29490,13 +29473,13 @@
       <c r="J75" s="2">
         <v>0.1</v>
       </c>
-      <c r="K75" s="47">
+      <c r="K75" s="8">
         <v>0.1</v>
       </c>
       <c r="L75" s="2">
         <v>0.2399385867877197</v>
       </c>
-      <c r="M75" s="36">
+      <c r="M75" s="35">
         <v>0.2399385867877197</v>
       </c>
       <c r="N75" s="2">
@@ -29511,7 +29494,7 @@
       <c r="Q75" s="2">
         <v>0.1</v>
       </c>
-      <c r="R75" s="35">
+      <c r="R75" s="34">
         <v>0.1</v>
       </c>
       <c r="S75" s="2">
@@ -29537,13 +29520,13 @@
       <c r="J76" s="2">
         <v>12</v>
       </c>
-      <c r="K76" s="47">
+      <c r="K76" s="8">
         <v>12</v>
       </c>
       <c r="L76" s="2">
         <v>10</v>
       </c>
-      <c r="M76" s="36">
+      <c r="M76" s="35">
         <v>10</v>
       </c>
       <c r="N76" s="2">
@@ -29558,7 +29541,7 @@
       <c r="Q76" s="2">
         <v>12</v>
       </c>
-      <c r="R76" s="35">
+      <c r="R76" s="34">
         <v>12</v>
       </c>
       <c r="S76" s="2">
@@ -29584,13 +29567,13 @@
       <c r="J77" s="2">
         <v>3</v>
       </c>
-      <c r="K77" s="47">
+      <c r="K77" s="8">
         <v>3</v>
       </c>
       <c r="L77" s="2">
         <v>4.63580226898193</v>
       </c>
-      <c r="M77" s="36">
+      <c r="M77" s="35">
         <v>4.63580226898193</v>
       </c>
       <c r="N77" s="2">
@@ -29605,7 +29588,7 @@
       <c r="Q77" s="2">
         <v>3</v>
       </c>
-      <c r="R77" s="35">
+      <c r="R77" s="34">
         <v>3</v>
       </c>
       <c r="S77" s="2">
@@ -29631,13 +29614,13 @@
       <c r="J78" s="2">
         <v>700</v>
       </c>
-      <c r="K78" s="47">
+      <c r="K78" s="8">
         <v>700</v>
       </c>
       <c r="L78" s="2">
         <v>930.21250226047403</v>
       </c>
-      <c r="M78" s="36">
+      <c r="M78" s="35">
         <v>930.21250226047403</v>
       </c>
       <c r="N78" s="2">
@@ -29652,7 +29635,7 @@
       <c r="Q78" s="2">
         <v>700</v>
       </c>
-      <c r="R78" s="35">
+      <c r="R78" s="34">
         <v>700</v>
       </c>
       <c r="S78" s="2">
@@ -29678,19 +29661,19 @@
       <c r="J79" s="2">
         <v>1E-10</v>
       </c>
-      <c r="K79" s="47">
+      <c r="K79" s="8">
         <v>100</v>
       </c>
-      <c r="L79" s="35">
+      <c r="L79" s="34">
         <v>100</v>
       </c>
-      <c r="M79" s="35">
+      <c r="M79" s="34">
         <v>100</v>
       </c>
-      <c r="N79" s="35">
+      <c r="N79" s="34">
         <v>100</v>
       </c>
-      <c r="O79" s="35">
+      <c r="O79" s="34">
         <v>100</v>
       </c>
       <c r="P79" s="2">
@@ -29699,7 +29682,7 @@
       <c r="Q79" s="2">
         <v>100</v>
       </c>
-      <c r="R79" s="35">
+      <c r="R79" s="34">
         <v>100</v>
       </c>
       <c r="S79" s="2">
@@ -29725,13 +29708,13 @@
       <c r="J80" s="2">
         <v>3</v>
       </c>
-      <c r="K80" s="47">
+      <c r="K80" s="8">
         <v>3</v>
       </c>
       <c r="L80" s="2">
         <v>1.87</v>
       </c>
-      <c r="M80" s="36">
+      <c r="M80" s="35">
         <v>1.87</v>
       </c>
       <c r="N80" s="2">
@@ -29746,7 +29729,7 @@
       <c r="Q80" s="2">
         <v>3</v>
       </c>
-      <c r="R80" s="35">
+      <c r="R80" s="34">
         <v>3</v>
       </c>
       <c r="S80" s="2">
@@ -29772,19 +29755,19 @@
       <c r="J81" s="2">
         <v>0</v>
       </c>
-      <c r="K81" s="47">
-        <v>0</v>
-      </c>
-      <c r="L81" s="35">
-        <v>0</v>
-      </c>
-      <c r="M81" s="35">
-        <v>0</v>
-      </c>
-      <c r="N81" s="35">
-        <v>0</v>
-      </c>
-      <c r="O81" s="35">
+      <c r="K81" s="8">
+        <v>0</v>
+      </c>
+      <c r="L81" s="34">
+        <v>0</v>
+      </c>
+      <c r="M81" s="34">
+        <v>0</v>
+      </c>
+      <c r="N81" s="34">
+        <v>0</v>
+      </c>
+      <c r="O81" s="34">
         <v>0</v>
       </c>
       <c r="P81" s="2">
@@ -29793,7 +29776,7 @@
       <c r="Q81" s="2">
         <v>0</v>
       </c>
-      <c r="R81" s="35">
+      <c r="R81" s="34">
         <v>0</v>
       </c>
       <c r="S81" s="2">
@@ -29819,19 +29802,19 @@
       <c r="J82" s="2">
         <v>0.25</v>
       </c>
-      <c r="K82" s="47">
+      <c r="K82" s="8">
         <v>0.25</v>
       </c>
-      <c r="L82" s="35">
+      <c r="L82" s="34">
         <v>0.25</v>
       </c>
-      <c r="M82" s="35">
+      <c r="M82" s="34">
         <v>0.25</v>
       </c>
-      <c r="N82" s="35">
+      <c r="N82" s="34">
         <v>0.25</v>
       </c>
-      <c r="O82" s="35">
+      <c r="O82" s="34">
         <v>0.25</v>
       </c>
       <c r="P82" s="2">
@@ -29840,7 +29823,7 @@
       <c r="Q82" s="2">
         <v>0.25</v>
       </c>
-      <c r="R82" s="35">
+      <c r="R82" s="34">
         <v>0.25</v>
       </c>
       <c r="S82" s="2">
@@ -29866,19 +29849,19 @@
       <c r="J83" s="2">
         <v>0.25</v>
       </c>
-      <c r="K83" s="47">
+      <c r="K83" s="8">
         <v>0.25</v>
       </c>
-      <c r="L83" s="35">
+      <c r="L83" s="34">
         <v>0.25</v>
       </c>
-      <c r="M83" s="35">
+      <c r="M83" s="34">
         <v>0.25</v>
       </c>
-      <c r="N83" s="35">
+      <c r="N83" s="34">
         <v>0.25</v>
       </c>
-      <c r="O83" s="35">
+      <c r="O83" s="34">
         <v>0.25</v>
       </c>
       <c r="P83" s="2">
@@ -29887,7 +29870,7 @@
       <c r="Q83" s="2">
         <v>0.25</v>
       </c>
-      <c r="R83" s="35">
+      <c r="R83" s="34">
         <v>0.25</v>
       </c>
       <c r="S83" s="2">
@@ -29913,19 +29896,19 @@
       <c r="J84" s="2">
         <v>0.03</v>
       </c>
-      <c r="K84" s="47">
+      <c r="K84" s="8">
         <v>0.03</v>
       </c>
-      <c r="L84" s="35">
+      <c r="L84" s="34">
         <v>0.03</v>
       </c>
-      <c r="M84" s="35">
+      <c r="M84" s="34">
         <v>0.03</v>
       </c>
-      <c r="N84" s="35">
+      <c r="N84" s="34">
         <v>0.03</v>
       </c>
-      <c r="O84" s="35">
+      <c r="O84" s="34">
         <v>0.03</v>
       </c>
       <c r="P84" s="2">
@@ -29934,7 +29917,7 @@
       <c r="Q84" s="2">
         <v>0.03</v>
       </c>
-      <c r="R84" s="35">
+      <c r="R84" s="34">
         <v>0.03</v>
       </c>
       <c r="S84" s="2">
@@ -29954,22 +29937,22 @@
       <c r="H85" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I85" s="35">
+      <c r="I85" s="34">
         <v>3200000000</v>
       </c>
-      <c r="J85" s="35">
+      <c r="J85" s="34">
         <v>3200000000</v>
       </c>
-      <c r="K85" s="47">
+      <c r="K85" s="8">
         <v>1400000000</v>
       </c>
-      <c r="L85" s="35">
+      <c r="L85" s="34">
         <v>3200000000</v>
       </c>
-      <c r="M85" s="35">
+      <c r="M85" s="34">
         <v>3200000000</v>
       </c>
-      <c r="N85" s="35">
+      <c r="N85" s="34">
         <v>3200000000</v>
       </c>
       <c r="O85" s="2">
@@ -29981,7 +29964,7 @@
       <c r="Q85" s="2">
         <v>3200000000</v>
       </c>
-      <c r="R85" s="35">
+      <c r="R85" s="34">
         <v>3200000000</v>
       </c>
       <c r="S85" s="2">
@@ -30001,22 +29984,22 @@
       <c r="H86" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I86" s="35">
+      <c r="I86" s="34">
         <v>2900000000</v>
       </c>
-      <c r="J86" s="35">
+      <c r="J86" s="34">
         <v>2900000000</v>
       </c>
-      <c r="K86" s="47">
+      <c r="K86" s="8">
         <v>3600000000</v>
       </c>
-      <c r="L86" s="35">
+      <c r="L86" s="34">
         <v>2900000000</v>
       </c>
-      <c r="M86" s="35">
+      <c r="M86" s="34">
         <v>2900000000</v>
       </c>
-      <c r="N86" s="35">
+      <c r="N86" s="34">
         <v>2900000000</v>
       </c>
       <c r="O86" s="2">
@@ -30028,7 +30011,7 @@
       <c r="Q86" s="2">
         <v>2900000000</v>
       </c>
-      <c r="R86" s="35">
+      <c r="R86" s="34">
         <v>2900000000</v>
       </c>
       <c r="S86" s="2">
@@ -30048,22 +30031,22 @@
       <c r="H87" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I87" s="35">
+      <c r="I87" s="34">
         <v>300000</v>
       </c>
-      <c r="J87" s="35">
+      <c r="J87" s="34">
         <v>300000</v>
       </c>
-      <c r="K87" s="47">
+      <c r="K87" s="8">
         <v>2100000</v>
       </c>
-      <c r="L87" s="35">
+      <c r="L87" s="34">
         <v>300000</v>
       </c>
-      <c r="M87" s="35">
+      <c r="M87" s="34">
         <v>300000</v>
       </c>
-      <c r="N87" s="35">
+      <c r="N87" s="34">
         <v>300000</v>
       </c>
       <c r="O87" s="2">
@@ -30075,7 +30058,7 @@
       <c r="Q87" s="2">
         <v>300000</v>
       </c>
-      <c r="R87" s="35">
+      <c r="R87" s="34">
         <v>300000</v>
       </c>
       <c r="S87" s="2">
@@ -30089,28 +30072,28 @@
       <c r="A88" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G88" s="34" t="s">
+      <c r="G88" s="33" t="s">
         <v>126</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I88" s="35">
+      <c r="I88" s="34">
         <v>1</v>
       </c>
-      <c r="J88" s="35">
+      <c r="J88" s="34">
         <v>1</v>
       </c>
-      <c r="K88" s="47">
+      <c r="K88" s="8">
         <v>2.4994511151960403E-2</v>
       </c>
-      <c r="L88" s="35">
+      <c r="L88" s="34">
         <v>1</v>
       </c>
-      <c r="M88" s="35">
+      <c r="M88" s="34">
         <v>1</v>
       </c>
-      <c r="N88" s="35">
+      <c r="N88" s="34">
         <v>1</v>
       </c>
       <c r="O88" s="2">
@@ -30122,7 +30105,7 @@
       <c r="Q88" s="2">
         <v>1</v>
       </c>
-      <c r="R88" s="35">
+      <c r="R88" s="34">
         <v>1</v>
       </c>
       <c r="S88" s="2">
@@ -30136,25 +30119,25 @@
       <c r="A89" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G89" s="34" t="s">
+      <c r="G89" s="33" t="s">
         <v>128</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I89" s="35">
+      <c r="I89" s="34">
         <v>1</v>
       </c>
-      <c r="J89" s="35">
+      <c r="J89" s="34">
         <v>1</v>
       </c>
-      <c r="K89" s="47">
+      <c r="K89" s="8">
         <v>2.4994511151960403E-2</v>
       </c>
       <c r="L89" s="2">
         <v>0.12393037193697687</v>
       </c>
-      <c r="M89" s="36">
+      <c r="M89" s="35">
         <v>0.12393037193697687</v>
       </c>
       <c r="N89" s="2">
@@ -30169,7 +30152,7 @@
       <c r="Q89" s="2">
         <v>1</v>
       </c>
-      <c r="R89" s="35">
+      <c r="R89" s="34">
         <v>1</v>
       </c>
       <c r="S89" s="2">
@@ -30183,28 +30166,28 @@
       <c r="A90" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G90" s="34" t="s">
+      <c r="G90" s="33" t="s">
         <v>129</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I90" s="35">
+      <c r="I90" s="34">
         <v>1</v>
       </c>
-      <c r="J90" s="35">
+      <c r="J90" s="34">
         <v>1</v>
       </c>
-      <c r="K90" s="47">
+      <c r="K90" s="8">
         <v>2.4994511151960403E-2</v>
       </c>
-      <c r="L90" s="35">
+      <c r="L90" s="34">
         <v>1</v>
       </c>
-      <c r="M90" s="35">
+      <c r="M90" s="34">
         <v>1</v>
       </c>
-      <c r="N90" s="35">
+      <c r="N90" s="34">
         <v>1</v>
       </c>
       <c r="O90" s="2">
@@ -30216,7 +30199,7 @@
       <c r="Q90" s="2">
         <v>1</v>
       </c>
-      <c r="R90" s="35">
+      <c r="R90" s="34">
         <v>1</v>
       </c>
       <c r="S90" s="2">
@@ -30230,28 +30213,28 @@
       <c r="A91" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G91" s="34" t="s">
+      <c r="G91" s="33" t="s">
         <v>131</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I91" s="35">
+      <c r="I91" s="34">
         <v>0.5</v>
       </c>
-      <c r="J91" s="35">
+      <c r="J91" s="34">
         <v>0.5</v>
       </c>
-      <c r="K91" s="47">
+      <c r="K91" s="8">
         <v>3.3929200658769768E-2</v>
       </c>
-      <c r="L91" s="35">
+      <c r="L91" s="34">
         <v>0.5</v>
       </c>
-      <c r="M91" s="35">
+      <c r="M91" s="34">
         <v>0.5</v>
       </c>
-      <c r="N91" s="35">
+      <c r="N91" s="34">
         <v>0.5</v>
       </c>
       <c r="O91" s="2">
@@ -30263,7 +30246,7 @@
       <c r="Q91" s="2">
         <v>0.5</v>
       </c>
-      <c r="R91" s="35">
+      <c r="R91" s="34">
         <v>0.5</v>
       </c>
       <c r="S91" s="2">
@@ -30277,25 +30260,25 @@
       <c r="A92" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G92" s="34" t="s">
+      <c r="G92" s="33" t="s">
         <v>134</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I92" s="35">
+      <c r="I92" s="34">
         <v>15</v>
       </c>
-      <c r="J92" s="35">
+      <c r="J92" s="34">
         <v>15</v>
       </c>
-      <c r="K92" s="47">
+      <c r="K92" s="8">
         <v>3.3929200658769768E-2</v>
       </c>
       <c r="L92" s="2">
         <v>1.858955579054653</v>
       </c>
-      <c r="M92" s="36">
+      <c r="M92" s="35">
         <v>1.858955579054653</v>
       </c>
       <c r="N92" s="2">
@@ -30310,7 +30293,7 @@
       <c r="Q92" s="2">
         <v>15</v>
       </c>
-      <c r="R92" s="35">
+      <c r="R92" s="34">
         <v>15</v>
       </c>
       <c r="S92" s="2">
@@ -30324,28 +30307,28 @@
       <c r="A93" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G93" s="34" t="s">
+      <c r="G93" s="33" t="s">
         <v>136</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I93" s="35">
+      <c r="I93" s="34">
         <v>5</v>
       </c>
-      <c r="J93" s="35">
+      <c r="J93" s="34">
         <v>5</v>
       </c>
-      <c r="K93" s="47">
+      <c r="K93" s="8">
         <v>3.3929200658769768E-2</v>
       </c>
-      <c r="L93" s="35">
+      <c r="L93" s="34">
         <v>5</v>
       </c>
-      <c r="M93" s="35">
+      <c r="M93" s="34">
         <v>5</v>
       </c>
-      <c r="N93" s="35">
+      <c r="N93" s="34">
         <v>5</v>
       </c>
       <c r="O93" s="2">
@@ -30357,7 +30340,7 @@
       <c r="Q93" s="2">
         <v>5</v>
       </c>
-      <c r="R93" s="35">
+      <c r="R93" s="34">
         <v>5</v>
       </c>
       <c r="S93" s="2">
@@ -30383,7 +30366,7 @@
       <c r="J94" s="2">
         <v>100</v>
       </c>
-      <c r="K94" s="47">
+      <c r="K94" s="8">
         <v>100</v>
       </c>
       <c r="L94" s="2">
@@ -30430,7 +30413,7 @@
       <c r="T95" s="2"/>
     </row>
     <row r="96" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="32" t="s">
+      <c r="A96" s="31" t="s">
         <v>30</v>
       </c>
       <c r="G96" s="7"/>
@@ -30451,10 +30434,10 @@
       <c r="A97" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G97" s="37" t="s">
+      <c r="G97" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H97" s="38" t="s">
+      <c r="H97" s="36" t="s">
         <v>82</v>
       </c>
       <c r="I97" s="2">
@@ -30463,19 +30446,19 @@
       <c r="J97" s="2">
         <v>3520000</v>
       </c>
-      <c r="K97" s="47">
+      <c r="K97" s="8">
         <v>3714410</v>
       </c>
-      <c r="L97" s="35">
+      <c r="L97" s="34">
         <v>3714410</v>
       </c>
-      <c r="M97" s="35">
+      <c r="M97" s="34">
         <v>3714410</v>
       </c>
-      <c r="N97" s="35">
+      <c r="N97" s="34">
         <v>3714410</v>
       </c>
-      <c r="O97" s="35">
+      <c r="O97" s="34">
         <v>3714410</v>
       </c>
       <c r="P97" s="2">
@@ -30484,7 +30467,7 @@
       <c r="Q97" s="2">
         <v>3714410</v>
       </c>
-      <c r="R97" s="35">
+      <c r="R97" s="34">
         <v>3714410</v>
       </c>
       <c r="S97" s="2">
@@ -30498,10 +30481,10 @@
       <c r="A98" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G98" s="37" t="s">
+      <c r="G98" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H98" s="38" t="s">
+      <c r="H98" s="36" t="s">
         <v>82</v>
       </c>
       <c r="I98" s="2">
@@ -30510,19 +30493,19 @@
       <c r="J98" s="2">
         <v>3520200</v>
       </c>
-      <c r="K98" s="47">
+      <c r="K98" s="8">
         <v>3714410</v>
       </c>
-      <c r="L98" s="35">
+      <c r="L98" s="34">
         <v>3714410</v>
       </c>
-      <c r="M98" s="35">
+      <c r="M98" s="34">
         <v>3714410</v>
       </c>
-      <c r="N98" s="35">
+      <c r="N98" s="34">
         <v>3714410</v>
       </c>
-      <c r="O98" s="35">
+      <c r="O98" s="34">
         <v>3714410</v>
       </c>
       <c r="P98" s="2">
@@ -30531,7 +30514,7 @@
       <c r="Q98" s="2">
         <v>3714410</v>
       </c>
-      <c r="R98" s="35">
+      <c r="R98" s="34">
         <v>3714410</v>
       </c>
       <c r="S98" s="2">
@@ -30542,98 +30525,98 @@
       </c>
     </row>
     <row r="99" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="46" t="s">
+      <c r="A99" s="44" t="s">
         <v>211</v>
       </c>
       <c r="B99" s="9"/>
-      <c r="G99" s="49" t="s">
+      <c r="G99" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="H99" s="50" t="s">
+      <c r="H99" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="I99" s="47">
+      <c r="I99" s="8">
         <v>3714410</v>
       </c>
-      <c r="J99" s="47">
+      <c r="J99" s="8">
         <v>3520000</v>
       </c>
-      <c r="K99" s="47">
+      <c r="K99" s="8">
         <v>3714410</v>
       </c>
-      <c r="L99" s="35">
+      <c r="L99" s="34">
         <v>3714410</v>
       </c>
-      <c r="M99" s="35">
+      <c r="M99" s="34">
         <v>3714410</v>
       </c>
-      <c r="N99" s="35">
+      <c r="N99" s="34">
         <v>3714410</v>
       </c>
-      <c r="O99" s="35">
+      <c r="O99" s="34">
         <v>3714410</v>
       </c>
-      <c r="P99" s="35">
+      <c r="P99" s="34">
         <v>3714410</v>
       </c>
-      <c r="Q99" s="35">
+      <c r="Q99" s="34">
         <v>3714410</v>
       </c>
-      <c r="R99" s="35">
+      <c r="R99" s="34">
         <v>3714410</v>
       </c>
-      <c r="S99" s="35">
+      <c r="S99" s="34">
         <v>3714410</v>
       </c>
-      <c r="T99" s="35">
+      <c r="T99" s="34">
         <v>3714410</v>
       </c>
     </row>
     <row r="100" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="46" t="s">
+      <c r="A100" s="44" t="s">
         <v>212</v>
       </c>
       <c r="B100" s="9"/>
-      <c r="G100" s="49" t="s">
+      <c r="G100" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="H100" s="50" t="s">
+      <c r="H100" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="I100" s="47">
+      <c r="I100" s="8">
         <v>3714410</v>
       </c>
-      <c r="J100" s="47">
+      <c r="J100" s="8">
         <v>3520200</v>
       </c>
-      <c r="K100" s="47">
+      <c r="K100" s="8">
         <v>3714410</v>
       </c>
-      <c r="L100" s="35">
+      <c r="L100" s="34">
         <v>3714410</v>
       </c>
-      <c r="M100" s="35">
+      <c r="M100" s="34">
         <v>3714410</v>
       </c>
-      <c r="N100" s="35">
+      <c r="N100" s="34">
         <v>3714410</v>
       </c>
-      <c r="O100" s="35">
+      <c r="O100" s="34">
         <v>3714410</v>
       </c>
-      <c r="P100" s="35">
+      <c r="P100" s="34">
         <v>3714410</v>
       </c>
-      <c r="Q100" s="35">
+      <c r="Q100" s="34">
         <v>3714410</v>
       </c>
-      <c r="R100" s="35">
+      <c r="R100" s="34">
         <v>3714410</v>
       </c>
-      <c r="S100" s="35">
+      <c r="S100" s="34">
         <v>3714410</v>
       </c>
-      <c r="T100" s="35">
+      <c r="T100" s="34">
         <v>3714410</v>
       </c>
     </row>
@@ -30641,10 +30624,10 @@
       <c r="A101" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G101" s="37" t="s">
+      <c r="G101" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H101" s="37" t="s">
+      <c r="H101" s="7" t="s">
         <v>87</v>
       </c>
       <c r="I101" s="2">
@@ -30653,19 +30636,19 @@
       <c r="J101" s="2">
         <v>1E-10</v>
       </c>
-      <c r="K101" s="47">
+      <c r="K101" s="8">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="L101" s="35">
+      <c r="L101" s="34">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M101" s="35">
+      <c r="M101" s="34">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="N101" s="35">
+      <c r="N101" s="34">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="O101" s="35">
+      <c r="O101" s="34">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="P101" s="2">
@@ -30674,7 +30657,7 @@
       <c r="Q101" s="2">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="R101" s="35">
+      <c r="R101" s="34">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="S101" s="2">
@@ -30688,10 +30671,10 @@
       <c r="A102" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G102" s="37" t="s">
+      <c r="G102" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H102" s="37" t="s">
+      <c r="H102" s="7" t="s">
         <v>87</v>
       </c>
       <c r="I102" s="2">
@@ -30700,19 +30683,19 @@
       <c r="J102" s="2">
         <v>0.03</v>
       </c>
-      <c r="K102" s="47">
+      <c r="K102" s="8">
         <v>2.75E-2</v>
       </c>
-      <c r="L102" s="35">
+      <c r="L102" s="34">
         <v>2.75E-2</v>
       </c>
-      <c r="M102" s="35">
+      <c r="M102" s="34">
         <v>2.75E-2</v>
       </c>
-      <c r="N102" s="35">
+      <c r="N102" s="34">
         <v>2.75E-2</v>
       </c>
-      <c r="O102" s="35">
+      <c r="O102" s="34">
         <v>2.75E-2</v>
       </c>
       <c r="P102" s="2">
@@ -30721,7 +30704,7 @@
       <c r="Q102" s="2">
         <v>2.75E-2</v>
       </c>
-      <c r="R102" s="35">
+      <c r="R102" s="34">
         <v>2.75E-2</v>
       </c>
       <c r="S102" s="2">
@@ -30735,10 +30718,10 @@
       <c r="A103" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G103" s="37" t="s">
+      <c r="G103" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H103" s="37" t="s">
+      <c r="H103" s="7" t="s">
         <v>87</v>
       </c>
       <c r="I103" s="2">
@@ -30747,19 +30730,19 @@
       <c r="J103" s="2">
         <v>0.27</v>
       </c>
-      <c r="K103" s="47">
+      <c r="K103" s="8">
         <v>0.27</v>
       </c>
-      <c r="L103" s="35">
+      <c r="L103" s="34">
         <v>0.27</v>
       </c>
-      <c r="M103" s="35">
+      <c r="M103" s="34">
         <v>0.27</v>
       </c>
-      <c r="N103" s="35">
+      <c r="N103" s="34">
         <v>0.27</v>
       </c>
-      <c r="O103" s="35">
+      <c r="O103" s="34">
         <v>0.27</v>
       </c>
       <c r="P103" s="2">
@@ -30768,7 +30751,7 @@
       <c r="Q103" s="2">
         <v>0.27</v>
       </c>
-      <c r="R103" s="35">
+      <c r="R103" s="34">
         <v>0.27</v>
       </c>
       <c r="S103" s="2">
@@ -30782,10 +30765,10 @@
       <c r="A104" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G104" s="37" t="s">
+      <c r="G104" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H104" s="37" t="s">
+      <c r="H104" s="7" t="s">
         <v>87</v>
       </c>
       <c r="I104" s="2">
@@ -30794,19 +30777,19 @@
       <c r="J104" s="2">
         <v>0.6</v>
       </c>
-      <c r="K104" s="47">
+      <c r="K104" s="8">
         <v>0.6</v>
       </c>
-      <c r="L104" s="35">
+      <c r="L104" s="34">
         <v>0.6</v>
       </c>
-      <c r="M104" s="35">
+      <c r="M104" s="34">
         <v>0.6</v>
       </c>
-      <c r="N104" s="35">
+      <c r="N104" s="34">
         <v>0.6</v>
       </c>
-      <c r="O104" s="35">
+      <c r="O104" s="34">
         <v>0.6</v>
       </c>
       <c r="P104" s="2">
@@ -30815,7 +30798,7 @@
       <c r="Q104" s="2">
         <v>0.6</v>
       </c>
-      <c r="R104" s="35">
+      <c r="R104" s="34">
         <v>0.6</v>
       </c>
       <c r="S104" s="2">
@@ -30829,10 +30812,10 @@
       <c r="A105" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G105" s="37" t="s">
+      <c r="G105" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H105" s="37" t="s">
+      <c r="H105" s="7" t="s">
         <v>87</v>
       </c>
       <c r="I105" s="2">
@@ -30841,19 +30824,19 @@
       <c r="J105" s="2">
         <v>0.1</v>
       </c>
-      <c r="K105" s="47">
+      <c r="K105" s="8">
         <v>0.1</v>
       </c>
-      <c r="L105" s="35">
+      <c r="L105" s="34">
         <v>0.1</v>
       </c>
-      <c r="M105" s="35">
+      <c r="M105" s="34">
         <v>0.1</v>
       </c>
-      <c r="N105" s="35">
+      <c r="N105" s="34">
         <v>0.1</v>
       </c>
-      <c r="O105" s="35">
+      <c r="O105" s="34">
         <v>0.1</v>
       </c>
       <c r="P105" s="2">
@@ -30862,7 +30845,7 @@
       <c r="Q105" s="2">
         <v>0.1</v>
       </c>
-      <c r="R105" s="35">
+      <c r="R105" s="34">
         <v>0.1</v>
       </c>
       <c r="S105" s="2">
@@ -30876,10 +30859,10 @@
       <c r="A106" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G106" s="37" t="s">
+      <c r="G106" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H106" s="37" t="s">
+      <c r="H106" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I106" s="2">
@@ -30888,19 +30871,19 @@
       <c r="J106" s="2">
         <v>12</v>
       </c>
-      <c r="K106" s="47">
+      <c r="K106" s="8">
         <v>12</v>
       </c>
-      <c r="L106" s="35">
+      <c r="L106" s="34">
         <v>12</v>
       </c>
-      <c r="M106" s="35">
+      <c r="M106" s="34">
         <v>12</v>
       </c>
-      <c r="N106" s="35">
+      <c r="N106" s="34">
         <v>12</v>
       </c>
-      <c r="O106" s="35">
+      <c r="O106" s="34">
         <v>12</v>
       </c>
       <c r="P106" s="2">
@@ -30909,7 +30892,7 @@
       <c r="Q106" s="2">
         <v>12</v>
       </c>
-      <c r="R106" s="35">
+      <c r="R106" s="34">
         <v>12</v>
       </c>
       <c r="S106" s="2">
@@ -30923,10 +30906,10 @@
       <c r="A107" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G107" s="37" t="s">
+      <c r="G107" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H107" s="37" t="s">
+      <c r="H107" s="7" t="s">
         <v>101</v>
       </c>
       <c r="I107" s="2">
@@ -30935,19 +30918,19 @@
       <c r="J107" s="2">
         <v>3</v>
       </c>
-      <c r="K107" s="47">
+      <c r="K107" s="8">
         <v>3</v>
       </c>
-      <c r="L107" s="35">
+      <c r="L107" s="34">
         <v>3</v>
       </c>
-      <c r="M107" s="35">
+      <c r="M107" s="34">
         <v>3</v>
       </c>
-      <c r="N107" s="35">
+      <c r="N107" s="34">
         <v>3</v>
       </c>
-      <c r="O107" s="35">
+      <c r="O107" s="34">
         <v>3</v>
       </c>
       <c r="P107" s="2">
@@ -30956,7 +30939,7 @@
       <c r="Q107" s="2">
         <v>3</v>
       </c>
-      <c r="R107" s="35">
+      <c r="R107" s="34">
         <v>3</v>
       </c>
       <c r="S107" s="2">
@@ -30970,10 +30953,10 @@
       <c r="A108" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G108" s="37" t="s">
+      <c r="G108" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H108" s="37" t="s">
+      <c r="H108" s="7" t="s">
         <v>104</v>
       </c>
       <c r="I108" s="2">
@@ -30982,19 +30965,19 @@
       <c r="J108" s="2">
         <v>700</v>
       </c>
-      <c r="K108" s="47">
+      <c r="K108" s="8">
         <v>700</v>
       </c>
-      <c r="L108" s="35">
+      <c r="L108" s="34">
         <v>700</v>
       </c>
-      <c r="M108" s="35">
+      <c r="M108" s="34">
         <v>700</v>
       </c>
-      <c r="N108" s="35">
+      <c r="N108" s="34">
         <v>700</v>
       </c>
-      <c r="O108" s="35">
+      <c r="O108" s="34">
         <v>700</v>
       </c>
       <c r="P108" s="2">
@@ -31003,7 +30986,7 @@
       <c r="Q108" s="2">
         <v>700</v>
       </c>
-      <c r="R108" s="35">
+      <c r="R108" s="34">
         <v>700</v>
       </c>
       <c r="S108" s="2">
@@ -31017,10 +31000,10 @@
       <c r="A109" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G109" s="37" t="s">
+      <c r="G109" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H109" s="37" t="s">
+      <c r="H109" s="7" t="s">
         <v>107</v>
       </c>
       <c r="I109" s="2">
@@ -31029,19 +31012,19 @@
       <c r="J109" s="2">
         <v>1E-10</v>
       </c>
-      <c r="K109" s="47">
+      <c r="K109" s="8">
         <v>100</v>
       </c>
-      <c r="L109" s="35">
+      <c r="L109" s="34">
         <v>100</v>
       </c>
-      <c r="M109" s="35">
+      <c r="M109" s="34">
         <v>100</v>
       </c>
-      <c r="N109" s="35">
+      <c r="N109" s="34">
         <v>100</v>
       </c>
-      <c r="O109" s="35">
+      <c r="O109" s="34">
         <v>100</v>
       </c>
       <c r="P109" s="2">
@@ -31050,7 +31033,7 @@
       <c r="Q109" s="2">
         <v>100</v>
       </c>
-      <c r="R109" s="35">
+      <c r="R109" s="34">
         <v>100</v>
       </c>
       <c r="S109" s="2">
@@ -31064,10 +31047,10 @@
       <c r="A110" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G110" s="37" t="s">
+      <c r="G110" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H110" s="37" t="s">
+      <c r="H110" s="7" t="s">
         <v>107</v>
       </c>
       <c r="I110" s="2">
@@ -31076,19 +31059,19 @@
       <c r="J110" s="2">
         <v>3</v>
       </c>
-      <c r="K110" s="47">
+      <c r="K110" s="8">
         <v>3</v>
       </c>
-      <c r="L110" s="35">
+      <c r="L110" s="34">
         <v>3</v>
       </c>
-      <c r="M110" s="35">
+      <c r="M110" s="34">
         <v>3</v>
       </c>
-      <c r="N110" s="35">
+      <c r="N110" s="34">
         <v>3</v>
       </c>
-      <c r="O110" s="35">
+      <c r="O110" s="34">
         <v>3</v>
       </c>
       <c r="P110" s="2">
@@ -31097,7 +31080,7 @@
       <c r="Q110" s="2">
         <v>3</v>
       </c>
-      <c r="R110" s="35">
+      <c r="R110" s="34">
         <v>3</v>
       </c>
       <c r="S110" s="2">
@@ -31111,10 +31094,10 @@
       <c r="A111" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G111" s="37" t="s">
+      <c r="G111" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H111" s="37" t="s">
+      <c r="H111" s="7" t="s">
         <v>87</v>
       </c>
       <c r="I111" s="2">
@@ -31123,19 +31106,19 @@
       <c r="J111" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="K111" s="47">
-        <v>0</v>
-      </c>
-      <c r="L111" s="35">
-        <v>0</v>
-      </c>
-      <c r="M111" s="35">
-        <v>0</v>
-      </c>
-      <c r="N111" s="35">
-        <v>0</v>
-      </c>
-      <c r="O111" s="35">
+      <c r="K111" s="8">
+        <v>0</v>
+      </c>
+      <c r="L111" s="34">
+        <v>0</v>
+      </c>
+      <c r="M111" s="34">
+        <v>0</v>
+      </c>
+      <c r="N111" s="34">
+        <v>0</v>
+      </c>
+      <c r="O111" s="34">
         <v>0</v>
       </c>
       <c r="P111" s="2">
@@ -31144,7 +31127,7 @@
       <c r="Q111" s="2">
         <v>0</v>
       </c>
-      <c r="R111" s="35">
+      <c r="R111" s="34">
         <v>0</v>
       </c>
       <c r="S111" s="2">
@@ -31158,10 +31141,10 @@
       <c r="A112" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G112" s="37" t="s">
+      <c r="G112" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H112" s="37" t="s">
+      <c r="H112" s="7" t="s">
         <v>87</v>
       </c>
       <c r="I112" s="2">
@@ -31170,19 +31153,19 @@
       <c r="J112" s="2">
         <v>0.25</v>
       </c>
-      <c r="K112" s="47">
+      <c r="K112" s="8">
         <v>0.25</v>
       </c>
-      <c r="L112" s="35">
+      <c r="L112" s="34">
         <v>0.25</v>
       </c>
-      <c r="M112" s="35">
+      <c r="M112" s="34">
         <v>0.25</v>
       </c>
-      <c r="N112" s="35">
+      <c r="N112" s="34">
         <v>0.25</v>
       </c>
-      <c r="O112" s="35">
+      <c r="O112" s="34">
         <v>0.25</v>
       </c>
       <c r="P112" s="2">
@@ -31191,7 +31174,7 @@
       <c r="Q112" s="2">
         <v>0.25</v>
       </c>
-      <c r="R112" s="35">
+      <c r="R112" s="34">
         <v>0.25</v>
       </c>
       <c r="S112" s="2">
@@ -31205,10 +31188,10 @@
       <c r="A113" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G113" s="37" t="s">
+      <c r="G113" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H113" s="37" t="s">
+      <c r="H113" s="7" t="s">
         <v>87</v>
       </c>
       <c r="I113" s="2">
@@ -31217,19 +31200,19 @@
       <c r="J113" s="2">
         <v>0.25</v>
       </c>
-      <c r="K113" s="47">
+      <c r="K113" s="8">
         <v>0.25</v>
       </c>
-      <c r="L113" s="35">
+      <c r="L113" s="34">
         <v>0.25</v>
       </c>
-      <c r="M113" s="35">
+      <c r="M113" s="34">
         <v>0.25</v>
       </c>
-      <c r="N113" s="35">
+      <c r="N113" s="34">
         <v>0.25</v>
       </c>
-      <c r="O113" s="35">
+      <c r="O113" s="34">
         <v>0.25</v>
       </c>
       <c r="P113" s="2">
@@ -31238,7 +31221,7 @@
       <c r="Q113" s="2">
         <v>0.25</v>
       </c>
-      <c r="R113" s="35">
+      <c r="R113" s="34">
         <v>0.25</v>
       </c>
       <c r="S113" s="2">
@@ -31252,10 +31235,10 @@
       <c r="A114" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G114" s="37" t="s">
+      <c r="G114" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H114" s="37" t="s">
+      <c r="H114" s="7" t="s">
         <v>104</v>
       </c>
       <c r="I114" s="2">
@@ -31264,19 +31247,19 @@
       <c r="J114" s="2">
         <v>0.03</v>
       </c>
-      <c r="K114" s="47">
+      <c r="K114" s="8">
         <v>0.03</v>
       </c>
-      <c r="L114" s="35">
+      <c r="L114" s="34">
         <v>0.03</v>
       </c>
-      <c r="M114" s="35">
+      <c r="M114" s="34">
         <v>0.03</v>
       </c>
-      <c r="N114" s="35">
+      <c r="N114" s="34">
         <v>0.03</v>
       </c>
-      <c r="O114" s="35">
+      <c r="O114" s="34">
         <v>0.03</v>
       </c>
       <c r="P114" s="2">
@@ -31285,7 +31268,7 @@
       <c r="Q114" s="2">
         <v>0.03</v>
       </c>
-      <c r="R114" s="35">
+      <c r="R114" s="34">
         <v>0.03</v>
       </c>
       <c r="S114" s="2">
@@ -31299,31 +31282,31 @@
       <c r="A115" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G115" s="37" t="s">
+      <c r="G115" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H115" s="37" t="s">
+      <c r="H115" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I115" s="35">
+      <c r="I115" s="34">
         <v>3200000000</v>
       </c>
-      <c r="J115" s="35">
+      <c r="J115" s="34">
         <v>3200000000</v>
       </c>
-      <c r="K115" s="47">
+      <c r="K115" s="8">
         <v>3200000000</v>
       </c>
-      <c r="L115" s="35">
+      <c r="L115" s="34">
         <v>3200000000</v>
       </c>
-      <c r="M115" s="35">
+      <c r="M115" s="34">
         <v>3200000000</v>
       </c>
-      <c r="N115" s="35">
+      <c r="N115" s="34">
         <v>3200000000</v>
       </c>
-      <c r="O115" s="35">
+      <c r="O115" s="34">
         <v>3200000000</v>
       </c>
       <c r="P115" s="2">
@@ -31332,7 +31315,7 @@
       <c r="Q115" s="2">
         <v>3200000000</v>
       </c>
-      <c r="R115" s="35">
+      <c r="R115" s="34">
         <v>3200000000</v>
       </c>
       <c r="S115" s="2">
@@ -31346,31 +31329,31 @@
       <c r="A116" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G116" s="37" t="s">
+      <c r="G116" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H116" s="37" t="s">
+      <c r="H116" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I116" s="35">
+      <c r="I116" s="34">
         <v>2900000000</v>
       </c>
-      <c r="J116" s="35">
+      <c r="J116" s="34">
         <v>2900000000</v>
       </c>
-      <c r="K116" s="47">
+      <c r="K116" s="8">
         <v>2900000000</v>
       </c>
-      <c r="L116" s="35">
+      <c r="L116" s="34">
         <v>2900000000</v>
       </c>
-      <c r="M116" s="35">
+      <c r="M116" s="34">
         <v>2900000000</v>
       </c>
-      <c r="N116" s="35">
+      <c r="N116" s="34">
         <v>2900000000</v>
       </c>
-      <c r="O116" s="35">
+      <c r="O116" s="34">
         <v>2900000000</v>
       </c>
       <c r="P116" s="2">
@@ -31379,7 +31362,7 @@
       <c r="Q116" s="2">
         <v>2900000000</v>
       </c>
-      <c r="R116" s="35">
+      <c r="R116" s="34">
         <v>2900000000</v>
       </c>
       <c r="S116" s="2">
@@ -31393,31 +31376,31 @@
       <c r="A117" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G117" s="37" t="s">
+      <c r="G117" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H117" s="37" t="s">
+      <c r="H117" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I117" s="35">
+      <c r="I117" s="34">
         <v>300000</v>
       </c>
-      <c r="J117" s="35">
+      <c r="J117" s="34">
         <v>300000</v>
       </c>
-      <c r="K117" s="47">
+      <c r="K117" s="8">
         <v>300000</v>
       </c>
-      <c r="L117" s="35">
+      <c r="L117" s="34">
         <v>300000</v>
       </c>
-      <c r="M117" s="35">
+      <c r="M117" s="34">
         <v>300000</v>
       </c>
-      <c r="N117" s="35">
+      <c r="N117" s="34">
         <v>300000</v>
       </c>
-      <c r="O117" s="35">
+      <c r="O117" s="34">
         <v>300000</v>
       </c>
       <c r="P117" s="2">
@@ -31426,7 +31409,7 @@
       <c r="Q117" s="2">
         <v>300000</v>
       </c>
-      <c r="R117" s="35">
+      <c r="R117" s="34">
         <v>300000</v>
       </c>
       <c r="S117" s="2">
@@ -31440,31 +31423,31 @@
       <c r="A118" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G118" s="38" t="s">
+      <c r="G118" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="H118" s="37" t="s">
+      <c r="H118" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="I118" s="35">
+      <c r="I118" s="34">
         <v>1</v>
       </c>
-      <c r="J118" s="35">
+      <c r="J118" s="34">
         <v>1</v>
       </c>
-      <c r="K118" s="47">
+      <c r="K118" s="8">
         <v>1</v>
       </c>
-      <c r="L118" s="35">
+      <c r="L118" s="34">
         <v>1</v>
       </c>
-      <c r="M118" s="35">
+      <c r="M118" s="34">
         <v>1</v>
       </c>
-      <c r="N118" s="35">
+      <c r="N118" s="34">
         <v>1</v>
       </c>
-      <c r="O118" s="35">
+      <c r="O118" s="34">
         <v>1</v>
       </c>
       <c r="P118" s="2">
@@ -31473,7 +31456,7 @@
       <c r="Q118" s="2">
         <v>1</v>
       </c>
-      <c r="R118" s="35">
+      <c r="R118" s="34">
         <v>1</v>
       </c>
       <c r="S118" s="2">
@@ -31487,31 +31470,31 @@
       <c r="A119" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G119" s="38" t="s">
+      <c r="G119" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="H119" s="37" t="s">
+      <c r="H119" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="I119" s="35">
+      <c r="I119" s="34">
         <v>1</v>
       </c>
-      <c r="J119" s="35">
+      <c r="J119" s="34">
         <v>1</v>
       </c>
-      <c r="K119" s="47">
+      <c r="K119" s="8">
         <v>1</v>
       </c>
-      <c r="L119" s="35">
+      <c r="L119" s="34">
         <v>1</v>
       </c>
-      <c r="M119" s="35">
+      <c r="M119" s="34">
         <v>1</v>
       </c>
-      <c r="N119" s="35">
+      <c r="N119" s="34">
         <v>1</v>
       </c>
-      <c r="O119" s="35">
+      <c r="O119" s="34">
         <v>1</v>
       </c>
       <c r="P119" s="2">
@@ -31520,7 +31503,7 @@
       <c r="Q119" s="2">
         <v>1</v>
       </c>
-      <c r="R119" s="35">
+      <c r="R119" s="34">
         <v>1</v>
       </c>
       <c r="S119" s="2">
@@ -31534,31 +31517,31 @@
       <c r="A120" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G120" s="38" t="s">
+      <c r="G120" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="H120" s="37" t="s">
+      <c r="H120" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="I120" s="35">
+      <c r="I120" s="34">
         <v>1</v>
       </c>
-      <c r="J120" s="35">
+      <c r="J120" s="34">
         <v>1</v>
       </c>
-      <c r="K120" s="47">
+      <c r="K120" s="8">
         <v>1</v>
       </c>
-      <c r="L120" s="35">
+      <c r="L120" s="34">
         <v>1</v>
       </c>
-      <c r="M120" s="35">
+      <c r="M120" s="34">
         <v>1</v>
       </c>
-      <c r="N120" s="35">
+      <c r="N120" s="34">
         <v>1</v>
       </c>
-      <c r="O120" s="35">
+      <c r="O120" s="34">
         <v>1</v>
       </c>
       <c r="P120" s="2">
@@ -31567,7 +31550,7 @@
       <c r="Q120" s="2">
         <v>1</v>
       </c>
-      <c r="R120" s="35">
+      <c r="R120" s="34">
         <v>1</v>
       </c>
       <c r="S120" s="2">
@@ -31581,31 +31564,31 @@
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G121" s="38" t="s">
+      <c r="G121" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="H121" s="37" t="s">
+      <c r="H121" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="I121" s="35">
+      <c r="I121" s="34">
         <v>0.5</v>
       </c>
-      <c r="J121" s="35">
+      <c r="J121" s="34">
         <v>0.5</v>
       </c>
-      <c r="K121" s="47">
+      <c r="K121" s="8">
         <v>0.5</v>
       </c>
-      <c r="L121" s="35">
+      <c r="L121" s="34">
         <v>0.5</v>
       </c>
-      <c r="M121" s="35">
+      <c r="M121" s="34">
         <v>0.5</v>
       </c>
-      <c r="N121" s="35">
+      <c r="N121" s="34">
         <v>0.5</v>
       </c>
-      <c r="O121" s="35">
+      <c r="O121" s="34">
         <v>0.5</v>
       </c>
       <c r="P121" s="2">
@@ -31614,7 +31597,7 @@
       <c r="Q121" s="2">
         <v>0.5</v>
       </c>
-      <c r="R121" s="35">
+      <c r="R121" s="34">
         <v>0.5</v>
       </c>
       <c r="S121" s="2">
@@ -31628,31 +31611,31 @@
       <c r="A122" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G122" s="38" t="s">
+      <c r="G122" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="H122" s="37" t="s">
+      <c r="H122" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="I122" s="35">
+      <c r="I122" s="34">
         <v>15</v>
       </c>
-      <c r="J122" s="35">
+      <c r="J122" s="34">
         <v>15</v>
       </c>
-      <c r="K122" s="47">
+      <c r="K122" s="8">
         <v>15</v>
       </c>
-      <c r="L122" s="35">
+      <c r="L122" s="34">
         <v>15</v>
       </c>
-      <c r="M122" s="35">
+      <c r="M122" s="34">
         <v>15</v>
       </c>
-      <c r="N122" s="35">
+      <c r="N122" s="34">
         <v>15</v>
       </c>
-      <c r="O122" s="35">
+      <c r="O122" s="34">
         <v>15</v>
       </c>
       <c r="P122" s="2">
@@ -31661,7 +31644,7 @@
       <c r="Q122" s="2">
         <v>15</v>
       </c>
-      <c r="R122" s="35">
+      <c r="R122" s="34">
         <v>15</v>
       </c>
       <c r="S122" s="2">
@@ -31675,31 +31658,31 @@
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G123" s="38" t="s">
+      <c r="G123" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="H123" s="37" t="s">
+      <c r="H123" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="I123" s="35">
+      <c r="I123" s="34">
         <v>5</v>
       </c>
-      <c r="J123" s="35">
+      <c r="J123" s="34">
         <v>5</v>
       </c>
-      <c r="K123" s="47">
+      <c r="K123" s="8">
         <v>5</v>
       </c>
-      <c r="L123" s="35">
+      <c r="L123" s="34">
         <v>5</v>
       </c>
-      <c r="M123" s="35">
+      <c r="M123" s="34">
         <v>5</v>
       </c>
-      <c r="N123" s="35">
+      <c r="N123" s="34">
         <v>5</v>
       </c>
-      <c r="O123" s="35">
+      <c r="O123" s="34">
         <v>5</v>
       </c>
       <c r="P123" s="2">
@@ -31708,7 +31691,7 @@
       <c r="Q123" s="2">
         <v>5</v>
       </c>
-      <c r="R123" s="35">
+      <c r="R123" s="34">
         <v>5</v>
       </c>
       <c r="S123" s="2">
@@ -31722,31 +31705,31 @@
       <c r="A124" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G124" s="37" t="s">
+      <c r="G124" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H124" s="37" t="s">
+      <c r="H124" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I124" s="35">
+      <c r="I124" s="34">
         <v>100</v>
       </c>
-      <c r="J124" s="35">
+      <c r="J124" s="34">
         <v>100</v>
       </c>
-      <c r="K124" s="47">
+      <c r="K124" s="8">
         <v>100</v>
       </c>
-      <c r="L124" s="35">
+      <c r="L124" s="34">
         <v>100</v>
       </c>
-      <c r="M124" s="35">
+      <c r="M124" s="34">
         <v>100</v>
       </c>
-      <c r="N124" s="35">
+      <c r="N124" s="34">
         <v>100</v>
       </c>
-      <c r="O124" s="35">
+      <c r="O124" s="34">
         <v>100</v>
       </c>
       <c r="P124" s="2">
@@ -31755,7 +31738,7 @@
       <c r="Q124" s="2">
         <v>100</v>
       </c>
-      <c r="R124" s="35">
+      <c r="R124" s="34">
         <v>100</v>
       </c>
       <c r="S124" s="2">
@@ -31766,38 +31749,38 @@
       </c>
     </row>
     <row r="125" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="39"/>
-      <c r="B125" s="40"/>
-      <c r="C125" s="40"/>
-      <c r="D125" s="40"/>
-      <c r="E125" s="40"/>
-      <c r="F125" s="40"/>
-      <c r="G125" s="39"/>
-      <c r="H125" s="39"/>
-      <c r="I125" s="41"/>
-      <c r="J125" s="41"/>
-      <c r="K125" s="41"/>
-      <c r="L125" s="41"/>
-      <c r="M125" s="41"/>
-      <c r="N125" s="41"/>
-      <c r="O125" s="41"/>
-      <c r="P125" s="41"/>
-      <c r="Q125" s="42"/>
-      <c r="R125" s="42"/>
-      <c r="S125" s="41"/>
-      <c r="T125" s="41"/>
+      <c r="A125" s="37"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="38"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="38"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="37"/>
+      <c r="I125" s="39"/>
+      <c r="J125" s="39"/>
+      <c r="K125" s="39"/>
+      <c r="L125" s="39"/>
+      <c r="M125" s="39"/>
+      <c r="N125" s="39"/>
+      <c r="O125" s="39"/>
+      <c r="P125" s="39"/>
+      <c r="Q125" s="40"/>
+      <c r="R125" s="40"/>
+      <c r="S125" s="39"/>
+      <c r="T125" s="39"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A126" s="25" t="s">
+      <c r="A126" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B126" s="25"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
-      <c r="E126" s="25"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="25"/>
-      <c r="H126" s="25"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
@@ -31815,26 +31798,26 @@
       <c r="B127" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F127" s="43"/>
-      <c r="G127" s="44" t="s">
+      <c r="F127" s="41"/>
+      <c r="G127" s="42" t="s">
         <v>169</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I127" s="51">
+      <c r="I127" s="48">
         <v>10</v>
       </c>
-      <c r="J127" s="51">
+      <c r="J127" s="48">
         <v>10</v>
       </c>
-      <c r="K127" s="47">
+      <c r="K127" s="8">
         <v>10</v>
       </c>
       <c r="L127" s="2">
         <v>10</v>
       </c>
-      <c r="M127" s="36">
+      <c r="M127" s="35">
         <v>10</v>
       </c>
       <c r="N127" s="2">
@@ -31843,7 +31826,7 @@
       <c r="O127" s="2">
         <v>10</v>
       </c>
-      <c r="P127" s="36">
+      <c r="P127" s="35">
         <v>10</v>
       </c>
       <c r="Q127" s="2">
@@ -31863,26 +31846,26 @@
       <c r="B128" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F128" s="43"/>
-      <c r="G128" s="44" t="s">
+      <c r="F128" s="41"/>
+      <c r="G128" s="42" t="s">
         <v>172</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I128" s="51">
+      <c r="I128" s="48">
         <v>1300</v>
       </c>
-      <c r="J128" s="51">
+      <c r="J128" s="48">
         <v>1300</v>
       </c>
-      <c r="K128" s="47">
+      <c r="K128" s="8">
         <v>1300</v>
       </c>
       <c r="L128" s="2">
         <v>1300</v>
       </c>
-      <c r="M128" s="36">
+      <c r="M128" s="35">
         <v>1300</v>
       </c>
       <c r="N128" s="2">
@@ -31891,7 +31874,7 @@
       <c r="O128" s="2">
         <v>1300</v>
       </c>
-      <c r="P128" s="36">
+      <c r="P128" s="35">
         <v>1300</v>
       </c>
       <c r="Q128" s="2">
@@ -31911,26 +31894,26 @@
       <c r="B129" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F129" s="43"/>
-      <c r="G129" s="44" t="s">
+      <c r="F129" s="41"/>
+      <c r="G129" s="42" t="s">
         <v>175</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I129" s="51">
+      <c r="I129" s="48">
         <v>58</v>
       </c>
-      <c r="J129" s="51">
+      <c r="J129" s="48">
         <v>58</v>
       </c>
-      <c r="K129" s="47">
+      <c r="K129" s="8">
         <v>60</v>
       </c>
       <c r="L129" s="2">
         <v>58</v>
       </c>
-      <c r="M129" s="36">
+      <c r="M129" s="35">
         <v>60</v>
       </c>
       <c r="N129" s="2">
@@ -31939,7 +31922,7 @@
       <c r="O129" s="2">
         <v>60</v>
       </c>
-      <c r="P129" s="36">
+      <c r="P129" s="35">
         <v>58</v>
       </c>
       <c r="Q129" s="2">
@@ -31959,26 +31942,26 @@
       <c r="B130" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F130" s="43"/>
-      <c r="G130" s="44" t="s">
+      <c r="F130" s="41"/>
+      <c r="G130" s="42" t="s">
         <v>177</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I130" s="51">
+      <c r="I130" s="48">
         <v>2000</v>
       </c>
-      <c r="J130" s="51">
+      <c r="J130" s="48">
         <v>2000</v>
       </c>
-      <c r="K130" s="47">
+      <c r="K130" s="8">
         <v>1500</v>
       </c>
       <c r="L130" s="2">
         <v>2000</v>
       </c>
-      <c r="M130" s="36">
+      <c r="M130" s="35">
         <v>1500</v>
       </c>
       <c r="N130" s="2">
@@ -31987,7 +31970,7 @@
       <c r="O130" s="2">
         <v>1500</v>
       </c>
-      <c r="P130" s="36">
+      <c r="P130" s="35">
         <v>2000</v>
       </c>
       <c r="Q130" s="2">
@@ -32007,26 +31990,26 @@
       <c r="B131" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F131" s="43"/>
-      <c r="G131" s="44" t="s">
+      <c r="F131" s="41"/>
+      <c r="G131" s="42" t="s">
         <v>179</v>
       </c>
       <c r="H131" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="I131" s="51">
+      <c r="I131" s="48">
         <v>0.9</v>
       </c>
-      <c r="J131" s="51">
+      <c r="J131" s="48">
         <v>0.9</v>
       </c>
-      <c r="K131" s="47">
+      <c r="K131" s="8">
         <v>0.9</v>
       </c>
       <c r="L131" s="2">
         <v>0.9</v>
       </c>
-      <c r="M131" s="36">
+      <c r="M131" s="35">
         <v>0.9</v>
       </c>
       <c r="N131" s="2">
@@ -32035,7 +32018,7 @@
       <c r="O131" s="2">
         <v>0.9</v>
       </c>
-      <c r="P131" s="36">
+      <c r="P131" s="35">
         <v>0.9</v>
       </c>
       <c r="Q131" s="2">
@@ -32055,26 +32038,26 @@
       <c r="B132" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F132" s="43"/>
-      <c r="G132" s="44" t="s">
+      <c r="F132" s="41"/>
+      <c r="G132" s="42" t="s">
         <v>182</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I132" s="51">
+      <c r="I132" s="48">
         <v>2000</v>
       </c>
-      <c r="J132" s="51">
+      <c r="J132" s="48">
         <v>2000</v>
       </c>
-      <c r="K132" s="47">
+      <c r="K132" s="8">
         <v>1600</v>
       </c>
       <c r="L132" s="2">
         <v>2000</v>
       </c>
-      <c r="M132" s="36">
+      <c r="M132" s="35">
         <v>1600</v>
       </c>
       <c r="N132" s="2">
@@ -32083,7 +32066,7 @@
       <c r="O132" s="2">
         <v>1600</v>
       </c>
-      <c r="P132" s="36">
+      <c r="P132" s="35">
         <v>2000</v>
       </c>
       <c r="Q132" s="2">
@@ -32103,26 +32086,26 @@
       <c r="B133" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F133" s="45"/>
-      <c r="G133" s="44" t="s">
+      <c r="F133" s="43"/>
+      <c r="G133" s="42" t="s">
         <v>184</v>
       </c>
       <c r="H133" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="I133" s="51">
+      <c r="I133" s="48">
         <v>150</v>
       </c>
-      <c r="J133" s="51">
+      <c r="J133" s="48">
         <v>150</v>
       </c>
-      <c r="K133" s="47">
+      <c r="K133" s="8">
         <v>30</v>
       </c>
       <c r="L133" s="2">
         <v>150</v>
       </c>
-      <c r="M133" s="36">
+      <c r="M133" s="35">
         <v>30</v>
       </c>
       <c r="N133" s="2">
@@ -32131,7 +32114,7 @@
       <c r="O133" s="2">
         <v>30</v>
       </c>
-      <c r="P133" s="36">
+      <c r="P133" s="35">
         <v>150</v>
       </c>
       <c r="Q133" s="2">
@@ -32151,26 +32134,26 @@
       <c r="B134" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F134" s="45"/>
-      <c r="G134" s="44" t="s">
+      <c r="F134" s="43"/>
+      <c r="G134" s="42" t="s">
         <v>186</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I134" s="51">
+      <c r="I134" s="48">
         <v>2000</v>
       </c>
-      <c r="J134" s="51">
+      <c r="J134" s="48">
         <v>2000</v>
       </c>
-      <c r="K134" s="47">
+      <c r="K134" s="8">
         <v>1300</v>
       </c>
       <c r="L134" s="2">
         <v>2000</v>
       </c>
-      <c r="M134" s="36">
+      <c r="M134" s="35">
         <v>1300</v>
       </c>
       <c r="N134" s="2">
@@ -32179,7 +32162,7 @@
       <c r="O134" s="2">
         <v>1300</v>
       </c>
-      <c r="P134" s="36">
+      <c r="P134" s="35">
         <v>2000</v>
       </c>
       <c r="Q134" s="2">
@@ -32199,26 +32182,26 @@
       <c r="B135" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F135" s="45"/>
-      <c r="G135" s="44" t="s">
+      <c r="F135" s="43"/>
+      <c r="G135" s="42" t="s">
         <v>188</v>
       </c>
       <c r="H135" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="I135" s="51">
+      <c r="I135" s="48">
         <v>3</v>
       </c>
-      <c r="J135" s="51">
+      <c r="J135" s="48">
         <v>3</v>
       </c>
-      <c r="K135" s="47">
+      <c r="K135" s="8">
         <v>0.5</v>
       </c>
       <c r="L135" s="2">
         <v>7.0000000000000009</v>
       </c>
-      <c r="M135" s="36">
+      <c r="M135" s="35">
         <v>7.0000000000000009</v>
       </c>
       <c r="N135" s="2">
@@ -32227,7 +32210,7 @@
       <c r="O135" s="2">
         <v>7.0000000000000009</v>
       </c>
-      <c r="P135" s="36">
+      <c r="P135" s="35">
         <v>3</v>
       </c>
       <c r="Q135" s="2">
@@ -32247,26 +32230,26 @@
       <c r="B136" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F136" s="45"/>
-      <c r="G136" s="44" t="s">
+      <c r="F136" s="43"/>
+      <c r="G136" s="42" t="s">
         <v>190</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I136" s="51">
+      <c r="I136" s="48">
         <v>2500</v>
       </c>
-      <c r="J136" s="51">
+      <c r="J136" s="48">
         <v>2500</v>
       </c>
-      <c r="K136" s="47">
+      <c r="K136" s="8">
         <v>1800</v>
       </c>
       <c r="L136" s="2">
         <v>2200</v>
       </c>
-      <c r="M136" s="36">
+      <c r="M136" s="35">
         <v>2200</v>
       </c>
       <c r="N136" s="2">
@@ -32275,7 +32258,7 @@
       <c r="O136" s="2">
         <v>2200</v>
       </c>
-      <c r="P136" s="36">
+      <c r="P136" s="35">
         <v>2500</v>
       </c>
       <c r="Q136" s="2">
@@ -32295,26 +32278,26 @@
       <c r="B137" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F137" s="45"/>
-      <c r="G137" s="44" t="s">
+      <c r="F137" s="43"/>
+      <c r="G137" s="42" t="s">
         <v>192</v>
       </c>
       <c r="H137" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="I137" s="51">
+      <c r="I137" s="48">
         <v>150</v>
       </c>
-      <c r="J137" s="51">
+      <c r="J137" s="48">
         <v>150</v>
       </c>
-      <c r="K137" s="47">
+      <c r="K137" s="8">
         <v>125</v>
       </c>
       <c r="L137" s="2">
         <v>150</v>
       </c>
-      <c r="M137" s="36">
+      <c r="M137" s="35">
         <v>125</v>
       </c>
       <c r="N137" s="2">
@@ -32323,7 +32306,7 @@
       <c r="O137" s="2">
         <v>125</v>
       </c>
-      <c r="P137" s="36">
+      <c r="P137" s="35">
         <v>150</v>
       </c>
       <c r="Q137" s="2">
@@ -32343,26 +32326,26 @@
       <c r="B138" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F138" s="45"/>
-      <c r="G138" s="44" t="s">
+      <c r="F138" s="43"/>
+      <c r="G138" s="42" t="s">
         <v>194</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I138" s="51">
+      <c r="I138" s="48">
         <v>2000</v>
       </c>
-      <c r="J138" s="51">
+      <c r="J138" s="48">
         <v>2000</v>
       </c>
-      <c r="K138" s="47">
+      <c r="K138" s="8">
         <v>2000</v>
       </c>
       <c r="L138" s="2">
         <v>2000</v>
       </c>
-      <c r="M138" s="36">
+      <c r="M138" s="35">
         <v>2000</v>
       </c>
       <c r="N138" s="2">
@@ -32371,7 +32354,7 @@
       <c r="O138" s="2">
         <v>0</v>
       </c>
-      <c r="P138" s="36">
+      <c r="P138" s="35">
         <v>2000</v>
       </c>
       <c r="Q138" s="2">
@@ -32391,26 +32374,26 @@
       <c r="B139" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F139" s="43"/>
-      <c r="G139" s="44" t="s">
+      <c r="F139" s="41"/>
+      <c r="G139" s="42" t="s">
         <v>196</v>
       </c>
       <c r="H139" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="I139" s="51">
+      <c r="I139" s="48">
         <v>128</v>
       </c>
-      <c r="J139" s="51">
+      <c r="J139" s="48">
         <v>128</v>
       </c>
-      <c r="K139" s="47">
+      <c r="K139" s="8">
         <v>130</v>
       </c>
       <c r="L139" s="2">
         <v>130</v>
       </c>
-      <c r="M139" s="36">
+      <c r="M139" s="35">
         <v>130</v>
       </c>
       <c r="N139" s="2">
@@ -32419,7 +32402,7 @@
       <c r="O139" s="2">
         <v>130</v>
       </c>
-      <c r="P139" s="36">
+      <c r="P139" s="35">
         <v>128</v>
       </c>
       <c r="Q139" s="2">
@@ -32439,26 +32422,26 @@
       <c r="B140" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F140" s="45"/>
-      <c r="G140" s="44" t="s">
+      <c r="F140" s="43"/>
+      <c r="G140" s="42" t="s">
         <v>198</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="I140" s="51">
+      <c r="I140" s="48">
         <v>150</v>
       </c>
-      <c r="J140" s="51">
+      <c r="J140" s="48">
         <v>150</v>
       </c>
-      <c r="K140" s="47">
+      <c r="K140" s="8">
         <v>60</v>
       </c>
-      <c r="L140" s="36">
+      <c r="L140" s="35">
         <v>150</v>
       </c>
-      <c r="M140" s="36">
+      <c r="M140" s="35">
         <v>60</v>
       </c>
       <c r="N140" s="2">
@@ -32467,7 +32450,7 @@
       <c r="O140" s="2">
         <v>60</v>
       </c>
-      <c r="P140" s="36">
+      <c r="P140" s="35">
         <v>150</v>
       </c>
       <c r="Q140" s="2">
@@ -32487,26 +32470,26 @@
       <c r="B141" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F141" s="45"/>
-      <c r="G141" s="44" t="s">
+      <c r="F141" s="43"/>
+      <c r="G141" s="42" t="s">
         <v>200</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I141" s="51">
+      <c r="I141" s="48">
         <v>2000</v>
       </c>
-      <c r="J141" s="51">
+      <c r="J141" s="48">
         <v>2000</v>
       </c>
-      <c r="K141" s="47">
+      <c r="K141" s="8">
         <v>2000</v>
       </c>
-      <c r="L141" s="36">
+      <c r="L141" s="35">
         <v>2000</v>
       </c>
-      <c r="M141" s="36">
+      <c r="M141" s="35">
         <v>2000</v>
       </c>
       <c r="N141" s="2">
@@ -32515,7 +32498,7 @@
       <c r="O141" s="2">
         <v>0</v>
       </c>
-      <c r="P141" s="36">
+      <c r="P141" s="35">
         <v>2000</v>
       </c>
       <c r="Q141" s="2">
@@ -32535,26 +32518,26 @@
       <c r="B142" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F142" s="45"/>
-      <c r="G142" s="44" t="s">
+      <c r="F142" s="43"/>
+      <c r="G142" s="42" t="s">
         <v>202</v>
       </c>
       <c r="H142" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="I142" s="51">
+      <c r="I142" s="48">
         <v>128</v>
       </c>
-      <c r="J142" s="51">
+      <c r="J142" s="48">
         <v>128</v>
       </c>
-      <c r="K142" s="47">
+      <c r="K142" s="8">
         <v>130</v>
       </c>
       <c r="L142" s="2">
         <v>31.500356271862902</v>
       </c>
-      <c r="M142" s="36">
+      <c r="M142" s="35">
         <v>31.500356271862902</v>
       </c>
       <c r="N142" s="2">
@@ -32563,7 +32546,7 @@
       <c r="O142" s="2">
         <v>31.500356271862902</v>
       </c>
-      <c r="P142" s="36">
+      <c r="P142" s="35">
         <v>128</v>
       </c>
       <c r="Q142" s="2">
@@ -32583,26 +32566,26 @@
       <c r="B143" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F143" s="45"/>
-      <c r="G143" s="44" t="s">
+      <c r="F143" s="43"/>
+      <c r="G143" s="42" t="s">
         <v>204</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I143" s="51">
+      <c r="I143" s="48">
         <v>2500</v>
       </c>
-      <c r="J143" s="51">
+      <c r="J143" s="48">
         <v>2500</v>
       </c>
-      <c r="K143" s="47">
+      <c r="K143" s="8">
         <v>2500</v>
       </c>
       <c r="L143" s="2">
         <v>2500</v>
       </c>
-      <c r="M143" s="36">
+      <c r="M143" s="35">
         <v>2500</v>
       </c>
       <c r="N143" s="2">
@@ -32611,7 +32594,7 @@
       <c r="O143" s="2">
         <v>2500</v>
       </c>
-      <c r="P143" s="36">
+      <c r="P143" s="35">
         <v>2500</v>
       </c>
       <c r="Q143" s="2">
@@ -32628,142 +32611,114 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L69 L89 N89 J38 L71:L78 L80 L92 L95:L96 N92">
-    <cfRule type="cellIs" dxfId="27" priority="42" operator="equal">
+  <conditionalFormatting sqref="I8 I10 I13">
+    <cfRule type="cellIs" dxfId="23" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T69:T80 N69:O69 I69:J80 Q69:Q80 I97:J98 N71:O78 N80:O80 N89:O89 I95:O96 L80 L89 L92 O85:O88 N92:O92 O90:O91 O93 I82:J84 Q82:Q98 T82:T98 I112:J114 J111 Q112:Q124 T112:T124 I101:J110 Q101:Q110 T101:T110 L69:L78">
-    <cfRule type="cellIs" dxfId="26" priority="41" operator="equal">
+  <conditionalFormatting sqref="I97:J110">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8 I10 I13">
-    <cfRule type="cellIs" dxfId="25" priority="40" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R95:S96 S97:S98 S69:S80 S82:S94 S112:S124 S101:S110">
-    <cfRule type="cellIs" dxfId="24" priority="35" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N69:O69 N71:O78 N80:O80 N89:O89 N95:O96 O85:O88 N92:O92 O90:O91 O93">
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R95:R96 T85:T94">
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q69:Q80 S69:T80 Q82:Q98 S82:T98 Q112:Q114 S112:T114 Q101:Q110 S101:T110">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T115:T124">
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q115:Q124 S115:T124">
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P69:P80 P82:P98 P112:P124 P101:P110">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+  <conditionalFormatting sqref="J38">
+    <cfRule type="cellIs" dxfId="21" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K85:K93">
-    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="17" stopIfTrue="1">
+      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="18" stopIfTrue="1">
+      <formula>HLOOKUP(CaseName,CaseData,ROW()-3,FALSE)&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
+      <formula>HLOOKUP(ScenarioName,ScenarioData,ROW()-180,FALSE)&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:O8 K10:O10 K13:O13">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L69:L78 I69:J80 L80 I82:J84 L89 L92 J111 I112:J114">
+    <cfRule type="cellIs" dxfId="16" priority="42" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M69 M71:M78 M80 M89 M92">
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+      <formula>HLOOKUP(CaseName,CaseData,ROW()-3,FALSE)&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+      <formula>HLOOKUP(ScenarioName,ScenarioData,ROW()-180,FALSE)&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M127:M137">
+    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
       <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K85:K93">
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
-      <formula>HLOOKUP(CaseName,CaseData,ROW()-3,FALSE)&lt;&gt;""</formula>
+  <conditionalFormatting sqref="M139:M140">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K85:K93">
-    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
-      <formula>HLOOKUP(ScenarioName,ScenarioData,ROW()-180,FALSE)&lt;&gt;""</formula>
+  <conditionalFormatting sqref="M142:M143">
+    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8 M13 M10">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8 O13 O10">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+  <conditionalFormatting sqref="N69:O69 N71:O78 N80:O80 O85:O88 N89:O89 O90:O91 N92:O92 O93 I95:O96">
+    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P127:P137">
-    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="14" stopIfTrue="1">
       <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P139:P140">
-    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="13" stopIfTrue="1">
       <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P142:P143">
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
       <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M69 M80 M89 M92 M71:M78">
-    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
-      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M69 M80 M89 M92 M71:M78">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
-      <formula>HLOOKUP(CaseName,CaseData,ROW()-3,FALSE)&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M69 M80 M89 M92 M71:M78">
-    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
-      <formula>HLOOKUP(ScenarioName,ScenarioData,ROW()-180,FALSE)&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M127:M137">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
-      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M139:M140">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
-      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M142:M143">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>HLOOKUP(CaseName,CaseData,ROW()-2,FALSE)&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8 K13 K10">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="P69:Q80 P82:Q98 P101:Q110 P112:Q124">
+    <cfRule type="cellIs" dxfId="5" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8 L13 L10">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="R95:S96">
+    <cfRule type="cellIs" dxfId="4" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8 N13 N10">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="S82:S94 S97:S98">
+    <cfRule type="cellIs" dxfId="3" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I99:J100">
+  <conditionalFormatting sqref="S69:T80 S82:T98 S101:T110">
+    <cfRule type="cellIs" dxfId="2" priority="26" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S112:T124">
+    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38 I40 I43">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
